--- a/job_app.xlsx
+++ b/job_app.xlsx
@@ -8193,7 +8193,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>In Progress</t>
+          <t>Rejected</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">

--- a/job_app.xlsx
+++ b/job_app.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:H212"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
       <selection activeCell="H175" sqref="H175"/>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Applied</t>
+          <t>Rejected</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>30/08 6PM</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
@@ -8489,6 +8489,166 @@
       <c r="H208" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>03/09/2024</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>GfK</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Junior Analyst</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>https://malaysia.indeed.com/jobs?q=data+analyst+fresh+graduate&amp;hl=en&amp;from=ja&amp;l=kuala+lumpur&amp;radius=25&amp;alid=66cee5c4d336aa576706f392&amp;tmtk=1i6i2au1lgarr800&amp;utm_campaign=job_alerts&amp;utm_medium=email&amp;utm_source=jobseeker_emails&amp;of=1&amp;fr=t&amp;vjk=e1d99fcb0aff75b9</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Indeed</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Will bring to jobsite</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>03/09/2024</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Archadian Sdn Bhd (Recruitment Firm)</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Software Developer (fresh graduates)</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Applied</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>https://malaysia.indeed.com/viewjob?jk=ffa4b5c1b86a2298&amp;q=full+stack+developer&amp;l=Petaling+Jaya&amp;tk=1i6kpl4j4jt33800&amp;from=ja&amp;alid=66cee4d1d336aa576706eedf&amp;xpse=SoBN67I38aDdSWTULZ0LbzkdCdPP&amp;xfps=679d4ff1-819b-4acd-8793-7bd88576367a&amp;utm_campaign=job_alerts&amp;utm_medium=email&amp;utm_source=jobseeker_emails&amp;rgtk=1i6kpl4j4jt33800&amp;xkcb=SoBd67M38U7bEjAMZ70PbzkdCdPP</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Indeed</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>03/09/2024</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Semuamas Resources Sdn Bhd</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Interview</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>https://mail.google.com/mail/u/1/#inbox/FMfcgzQVzXRwMNmqtZMbqhwkchdCnrxD</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Direct email</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>30/08/2024</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Lembaga Zakat Selangor</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Pegawai Khas Pejabat Ketua Pegawai Operasi</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Interview</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>https://mail.google.com/mail/u/1/#inbox/FMfcgzQVzNzxcbSlBbSsSVhXTNncldWV</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Direct email</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>05/09 10AM</t>
         </is>
       </c>
     </row>
